--- a/code/outputs/comparison_operative_rules_p2_results.xlsx
+++ b/code/outputs/comparison_operative_rules_p2_results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>y_true</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Process decision rules</t>
+  </si>
+  <si>
+    <t>Activity pre-condition rules</t>
   </si>
   <si>
     <t>3</t>
@@ -477,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -485,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -511,50 +514,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -564,38 +567,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -606,84 +612,122 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
     </row>
@@ -702,21 +746,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -733,7 +777,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -750,7 +794,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -767,7 +811,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,38 +841,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
